--- a/Server/App_Data/BM.11-QT.05.08 NKVH turbine BM3 01.03.25.xlsx
+++ b/Server/App_Data/BM.11-QT.05.08 NKVH turbine BM3 01.03.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levandat4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30D4AF-23B7-4FE2-B08E-62319B2E7F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028BE84-EA2E-4804-88CD-CC2A93CB9B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1551,7 +1551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,6 +1893,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2226,7 +2232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2625,13 +2631,70 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2655,65 +2718,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2736,11 +2748,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2760,15 +2781,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2787,14 +2799,14 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2820,11 +2832,20 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2841,40 +2862,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4497,12 +4506,12 @@
   <sheetData>
     <row r="1" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -4522,311 +4531,311 @@
       <c r="X1" s="4"/>
       <c r="AH1" s="26"/>
       <c r="AI1" s="26"/>
-      <c r="AJ1" s="159" t="s">
+      <c r="AJ1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
-      <c r="AT1" s="159"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155"/>
+      <c r="AN1" s="155"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="155"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="155"/>
+      <c r="AT1" s="155"/>
     </row>
     <row r="2" spans="1:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
       <c r="AI2" s="84"/>
-      <c r="AJ2" s="161" t="s">
+      <c r="AJ2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
-      <c r="AT2" s="161"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="157"/>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="157"/>
     </row>
     <row r="3" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
-      <c r="AK3" s="163"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="163"/>
-      <c r="AO3" s="163"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="163"/>
-      <c r="AT3" s="163"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="159"/>
+      <c r="AJ3" s="159"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="159"/>
+      <c r="AM3" s="159"/>
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="159"/>
+      <c r="AQ3" s="159"/>
+      <c r="AR3" s="159"/>
+      <c r="AS3" s="159"/>
+      <c r="AT3" s="159"/>
     </row>
     <row r="4" spans="1:46" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="141" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="141"/>
-      <c r="AD4" s="141"/>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="141"/>
-      <c r="AH4" s="141"/>
-      <c r="AI4" s="154" t="s">
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="155"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="154" t="s">
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="155"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="168"/>
-      <c r="AS4" s="154" t="s">
+      <c r="AN4" s="147"/>
+      <c r="AO4" s="147"/>
+      <c r="AP4" s="147"/>
+      <c r="AQ4" s="147"/>
+      <c r="AR4" s="148"/>
+      <c r="AS4" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AT4" s="155"/>
+      <c r="AT4" s="147"/>
     </row>
     <row r="5" spans="1:46" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="150" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="150" t="s">
+      <c r="H5" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="150" t="s">
+      <c r="L5" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="150" t="s">
+      <c r="N5" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="150" t="s">
+      <c r="O5" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="150" t="s">
+      <c r="P5" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="150" t="s">
+      <c r="Q5" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="150" t="s">
+      <c r="R5" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="150" t="s">
+      <c r="S5" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="150" t="s">
+      <c r="T5" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="150" t="s">
+      <c r="U5" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="150" t="s">
+      <c r="V5" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="150" t="s">
+      <c r="W5" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="150" t="s">
+      <c r="X5" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="152" t="s">
+      <c r="Y5" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="152" t="s">
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="152" t="s">
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="152" t="s">
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="141" t="s">
+      <c r="AF5" s="169"/>
+      <c r="AG5" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="169"/>
-      <c r="AM5" s="156"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="169"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="157"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="149"/>
+      <c r="AJ5" s="150"/>
+      <c r="AK5" s="150"/>
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="149"/>
+      <c r="AN5" s="150"/>
+      <c r="AO5" s="150"/>
+      <c r="AP5" s="150"/>
+      <c r="AQ5" s="150"/>
+      <c r="AR5" s="151"/>
+      <c r="AS5" s="149"/>
+      <c r="AT5" s="150"/>
     </row>
     <row r="6" spans="1:46" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="151"/>
+      <c r="A6" s="142"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
       <c r="Y6" s="96" t="s">
         <v>38</v>
       </c>
@@ -6335,80 +6344,83 @@
       <c r="AT33" s="104"/>
     </row>
     <row r="34" spans="1:46" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="142" t="s">
+      <c r="A34" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="143" t="s">
+      <c r="B34" s="161"/>
+      <c r="C34" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="144" t="s">
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="146"/>
-      <c r="V34" s="146"/>
-      <c r="W34" s="147"/>
-      <c r="X34" s="148" t="s">
+      <c r="P34" s="165"/>
+      <c r="Q34" s="165"/>
+      <c r="R34" s="165"/>
+      <c r="S34" s="165"/>
+      <c r="T34" s="165"/>
+      <c r="U34" s="165"/>
+      <c r="V34" s="165"/>
+      <c r="W34" s="166"/>
+      <c r="X34" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="143" t="s">
+      <c r="Y34" s="168"/>
+      <c r="Z34" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="AA34" s="144"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="144"/>
-      <c r="AD34" s="144"/>
-      <c r="AE34" s="144"/>
-      <c r="AF34" s="144"/>
-      <c r="AG34" s="144"/>
-      <c r="AH34" s="144"/>
-      <c r="AI34" s="144"/>
-      <c r="AJ34" s="144"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="140" t="s">
+      <c r="AA34" s="163"/>
+      <c r="AB34" s="163"/>
+      <c r="AC34" s="163"/>
+      <c r="AD34" s="163"/>
+      <c r="AE34" s="163"/>
+      <c r="AF34" s="163"/>
+      <c r="AG34" s="163"/>
+      <c r="AH34" s="163"/>
+      <c r="AI34" s="163"/>
+      <c r="AJ34" s="163"/>
+      <c r="AK34" s="164"/>
+      <c r="AL34" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="AM34" s="140"/>
-      <c r="AN34" s="140"/>
-      <c r="AO34" s="140"/>
-      <c r="AP34" s="140"/>
-      <c r="AQ34" s="140"/>
-      <c r="AR34" s="140"/>
-      <c r="AS34" s="140"/>
-      <c r="AT34" s="140"/>
+      <c r="AM34" s="160"/>
+      <c r="AN34" s="160"/>
+      <c r="AO34" s="160"/>
+      <c r="AP34" s="160"/>
+      <c r="AQ34" s="160"/>
+      <c r="AR34" s="160"/>
+      <c r="AS34" s="160"/>
+      <c r="AT34" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:X4"/>
-    <mergeCell ref="Y4:AH4"/>
-    <mergeCell ref="AM4:AR5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="AI4:AL5"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="AJ1:AT1"/>
-    <mergeCell ref="I2:AH2"/>
-    <mergeCell ref="AJ2:AT2"/>
-    <mergeCell ref="A3:AT3"/>
+    <mergeCell ref="AL34:AT34"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="O34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AK34"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="AS4:AT5"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -6425,22 +6437,19 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="AL34:AT34"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="O34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AK34"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="AJ1:AT1"/>
+    <mergeCell ref="I2:AH2"/>
+    <mergeCell ref="AJ2:AT2"/>
+    <mergeCell ref="A3:AT3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="Y4:AH4"/>
+    <mergeCell ref="AM4:AR5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="AI4:AL5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.15" right="0" top="0.55000000000000004" bottom="0.5" header="0.3" footer="0.3"/>
@@ -6464,14 +6473,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
+      <c r="A1" s="172"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -6493,24 +6502,24 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="159" t="s">
+      <c r="AD1" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155"/>
+      <c r="AN1" s="155"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="155"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="63"/>
       <c r="AU1" s="63"/>
       <c r="AV1" s="63"/>
@@ -6518,14 +6527,14 @@
       <c r="AX1" s="63"/>
     </row>
     <row r="2" spans="1:50" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -6546,24 +6555,24 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="161" t="s">
+      <c r="AD2" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="161"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="161"/>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="161"/>
-      <c r="AJ2" s="161"/>
-      <c r="AK2" s="161"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="157"/>
+      <c r="AS2" s="157"/>
       <c r="AT2" s="64"/>
       <c r="AU2" s="64"/>
       <c r="AV2" s="64"/>
@@ -6571,190 +6580,190 @@
       <c r="AX2" s="64"/>
     </row>
     <row r="3" spans="1:50" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="172"/>
-      <c r="AN3" s="172"/>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="172"/>
-      <c r="AQ3" s="172"/>
-      <c r="AR3" s="172"/>
-      <c r="AS3" s="172"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
     </row>
     <row r="4" spans="1:50" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="152" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="177"/>
+      <c r="AA4" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="152" t="s">
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="153"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="169"/>
     </row>
     <row r="5" spans="1:50" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="141" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142" t="s">
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142" t="s">
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="141" t="s">
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="152" t="s">
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="152" t="s">
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="153"/>
-      <c r="AK5" s="150" t="s">
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="AL5" s="150" t="s">
+      <c r="AL5" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" s="150" t="s">
+      <c r="AM5" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="AN5" s="150" t="s">
+      <c r="AN5" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="AO5" s="150" t="s">
+      <c r="AO5" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="AP5" s="177" t="s">
+      <c r="AP5" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="AQ5" s="177" t="s">
+      <c r="AQ5" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="AR5" s="177" t="s">
+      <c r="AR5" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="AS5" s="177" t="s">
+      <c r="AS5" s="170" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="96" t="s">
         <v>91</v>
       </c>
@@ -6860,15 +6869,15 @@
       <c r="AJ6" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="151"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="151"/>
-      <c r="AO6" s="151"/>
-      <c r="AP6" s="178"/>
-      <c r="AQ6" s="178"/>
-      <c r="AR6" s="178"/>
-      <c r="AS6" s="178"/>
+      <c r="AK6" s="153"/>
+      <c r="AL6" s="153"/>
+      <c r="AM6" s="153"/>
+      <c r="AN6" s="153"/>
+      <c r="AO6" s="153"/>
+      <c r="AP6" s="171"/>
+      <c r="AQ6" s="171"/>
+      <c r="AR6" s="171"/>
+      <c r="AS6" s="171"/>
     </row>
     <row r="7" spans="1:50" s="81" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
@@ -8381,61 +8390,61 @@
       <c r="AS34" s="95"/>
     </row>
     <row r="35" spans="1:45" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="148" t="s">
+      <c r="A35" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="143" t="s">
+      <c r="B35" s="168"/>
+      <c r="C35" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="142" t="s">
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="163"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="T35" s="142"/>
-      <c r="U35" s="143" t="s">
+      <c r="T35" s="161"/>
+      <c r="U35" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="V35" s="144"/>
-      <c r="W35" s="144"/>
-      <c r="X35" s="144"/>
-      <c r="Y35" s="144"/>
-      <c r="Z35" s="144"/>
-      <c r="AA35" s="144"/>
-      <c r="AB35" s="144"/>
-      <c r="AC35" s="144"/>
-      <c r="AD35" s="145"/>
-      <c r="AE35" s="143" t="s">
+      <c r="V35" s="163"/>
+      <c r="W35" s="163"/>
+      <c r="X35" s="163"/>
+      <c r="Y35" s="163"/>
+      <c r="Z35" s="163"/>
+      <c r="AA35" s="163"/>
+      <c r="AB35" s="163"/>
+      <c r="AC35" s="163"/>
+      <c r="AD35" s="164"/>
+      <c r="AE35" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="AF35" s="144"/>
-      <c r="AG35" s="144"/>
-      <c r="AH35" s="144"/>
-      <c r="AI35" s="144"/>
-      <c r="AJ35" s="144"/>
-      <c r="AK35" s="144"/>
-      <c r="AL35" s="144"/>
-      <c r="AM35" s="144"/>
-      <c r="AN35" s="144"/>
-      <c r="AO35" s="144"/>
-      <c r="AP35" s="144"/>
-      <c r="AQ35" s="144"/>
-      <c r="AR35" s="144"/>
-      <c r="AS35" s="145"/>
+      <c r="AF35" s="163"/>
+      <c r="AG35" s="163"/>
+      <c r="AH35" s="163"/>
+      <c r="AI35" s="163"/>
+      <c r="AJ35" s="163"/>
+      <c r="AK35" s="163"/>
+      <c r="AL35" s="163"/>
+      <c r="AM35" s="163"/>
+      <c r="AN35" s="163"/>
+      <c r="AO35" s="163"/>
+      <c r="AP35" s="163"/>
+      <c r="AQ35" s="163"/>
+      <c r="AR35" s="163"/>
+      <c r="AS35" s="164"/>
     </row>
     <row r="36" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
@@ -8487,21 +8496,6 @@
     <row r="37" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:AD35"/>
-    <mergeCell ref="AE35:AS35"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="AD1:AS1"/>
     <mergeCell ref="AD2:AS2"/>
@@ -8518,6 +8512,21 @@
     <mergeCell ref="AA5:AE5"/>
     <mergeCell ref="AF5:AJ5"/>
     <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:AD35"/>
+    <mergeCell ref="AE35:AS35"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -8530,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EB6986-4140-4504-AEDB-B3B9B19434DE}">
   <dimension ref="A1:BF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8553,21 +8562,21 @@
       <c r="Z1" s="105"/>
       <c r="AA1" s="105"/>
       <c r="AB1" s="105"/>
-      <c r="AN1" s="179" t="s">
+      <c r="AN1" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="179"/>
-      <c r="AP1" s="179"/>
-      <c r="AQ1" s="179"/>
-      <c r="AR1" s="179"/>
-      <c r="AS1" s="179"/>
-      <c r="AT1" s="179"/>
-      <c r="AU1" s="179"/>
-      <c r="AV1" s="179"/>
-      <c r="AW1" s="179"/>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="179"/>
+      <c r="AO1" s="184"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="184"/>
+      <c r="AS1" s="184"/>
+      <c r="AT1" s="184"/>
+      <c r="AU1" s="184"/>
+      <c r="AV1" s="184"/>
+      <c r="AW1" s="184"/>
+      <c r="AX1" s="184"/>
+      <c r="AY1" s="184"/>
+      <c r="AZ1" s="184"/>
       <c r="BA1" s="107"/>
     </row>
     <row r="2" spans="1:58" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8588,17 +8597,17 @@
       <c r="AO2" s="108"/>
       <c r="AP2" s="108"/>
       <c r="AQ2" s="108"/>
-      <c r="AR2" s="179" t="s">
+      <c r="AR2" s="184" t="s">
         <v>263</v>
       </c>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="179"/>
+      <c r="AS2" s="184"/>
+      <c r="AT2" s="184"/>
+      <c r="AU2" s="184"/>
+      <c r="AV2" s="184"/>
+      <c r="AW2" s="184"/>
+      <c r="AX2" s="184"/>
+      <c r="AY2" s="184"/>
+      <c r="AZ2" s="184"/>
       <c r="BA2" s="107"/>
     </row>
     <row r="3" spans="1:58" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8619,267 +8628,267 @@
       <c r="AO3" s="108"/>
       <c r="AP3" s="108"/>
       <c r="AQ3" s="108"/>
-      <c r="AR3" s="195" t="s">
+      <c r="AR3" s="196" t="s">
         <v>264</v>
       </c>
-      <c r="AS3" s="195"/>
-      <c r="AT3" s="195"/>
-      <c r="AU3" s="195"/>
-      <c r="AV3" s="195"/>
-      <c r="AW3" s="195"/>
-      <c r="AX3" s="195"/>
-      <c r="AY3" s="195"/>
-      <c r="AZ3" s="195"/>
+      <c r="AS3" s="196"/>
+      <c r="AT3" s="196"/>
+      <c r="AU3" s="196"/>
+      <c r="AV3" s="196"/>
+      <c r="AW3" s="196"/>
+      <c r="AX3" s="196"/>
+      <c r="AY3" s="196"/>
+      <c r="AZ3" s="196"/>
       <c r="BA3" s="107"/>
     </row>
     <row r="4" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="180"/>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="180"/>
-      <c r="AT4" s="180"/>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="180"/>
-      <c r="AY4" s="180"/>
-      <c r="AZ4" s="180"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185"/>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="185"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="185"/>
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="185"/>
+      <c r="AM4" s="185"/>
+      <c r="AN4" s="185"/>
+      <c r="AO4" s="185"/>
+      <c r="AP4" s="185"/>
+      <c r="AQ4" s="185"/>
+      <c r="AR4" s="185"/>
+      <c r="AS4" s="185"/>
+      <c r="AT4" s="185"/>
+      <c r="AU4" s="185"/>
+      <c r="AV4" s="185"/>
+      <c r="AW4" s="185"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="185"/>
+      <c r="AZ4" s="185"/>
       <c r="BA4" s="107"/>
     </row>
     <row r="5" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="186" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="181"/>
-      <c r="AT5" s="181"/>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="181"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="186"/>
+      <c r="AA5" s="186"/>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="186"/>
+      <c r="AD5" s="186"/>
+      <c r="AE5" s="186"/>
+      <c r="AF5" s="186"/>
+      <c r="AG5" s="186"/>
+      <c r="AH5" s="186"/>
+      <c r="AI5" s="186"/>
+      <c r="AJ5" s="186"/>
+      <c r="AK5" s="186"/>
+      <c r="AL5" s="186"/>
+      <c r="AM5" s="186"/>
+      <c r="AN5" s="186"/>
+      <c r="AO5" s="186"/>
+      <c r="AP5" s="186"/>
+      <c r="AQ5" s="186"/>
+      <c r="AR5" s="186"/>
+      <c r="AS5" s="186"/>
+      <c r="AT5" s="186"/>
+      <c r="AU5" s="186"/>
+      <c r="AV5" s="186"/>
+      <c r="AW5" s="186"/>
+      <c r="AX5" s="186"/>
+      <c r="AY5" s="186"/>
+      <c r="AZ5" s="186"/>
       <c r="BA5" s="107"/>
     </row>
     <row r="6" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="187" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="181" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="186"/>
-      <c r="V6" s="186"/>
-      <c r="W6" s="186"/>
-      <c r="X6" s="186"/>
-      <c r="Y6" s="187"/>
-      <c r="Z6" s="188" t="s">
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="190" t="s">
         <v>138</v>
       </c>
-      <c r="AA6" s="189"/>
-      <c r="AB6" s="190"/>
-      <c r="AC6" s="185" t="s">
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="186"/>
-      <c r="AF6" s="186"/>
-      <c r="AG6" s="186"/>
-      <c r="AH6" s="186"/>
-      <c r="AI6" s="186"/>
-      <c r="AJ6" s="186"/>
-      <c r="AK6" s="186"/>
-      <c r="AL6" s="186"/>
-      <c r="AM6" s="186"/>
-      <c r="AN6" s="187"/>
-      <c r="AO6" s="185" t="s">
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="182"/>
+      <c r="AH6" s="182"/>
+      <c r="AI6" s="182"/>
+      <c r="AJ6" s="182"/>
+      <c r="AK6" s="182"/>
+      <c r="AL6" s="182"/>
+      <c r="AM6" s="182"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="186"/>
-      <c r="AQ6" s="186"/>
-      <c r="AR6" s="186"/>
-      <c r="AS6" s="186"/>
-      <c r="AT6" s="186"/>
-      <c r="AU6" s="186"/>
-      <c r="AV6" s="186"/>
-      <c r="AW6" s="186"/>
-      <c r="AX6" s="186"/>
-      <c r="AY6" s="186"/>
-      <c r="AZ6" s="186"/>
+      <c r="AP6" s="182"/>
+      <c r="AQ6" s="182"/>
+      <c r="AR6" s="182"/>
+      <c r="AS6" s="182"/>
+      <c r="AT6" s="182"/>
+      <c r="AU6" s="182"/>
+      <c r="AV6" s="182"/>
+      <c r="AW6" s="182"/>
+      <c r="AX6" s="182"/>
+      <c r="AY6" s="182"/>
+      <c r="AZ6" s="182"/>
       <c r="BA6" s="107"/>
     </row>
     <row r="7" spans="1:58" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="183"/>
-      <c r="B7" s="194" t="s">
+      <c r="A7" s="188"/>
+      <c r="B7" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="O7" s="194"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="194"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="194"/>
-      <c r="T7" s="194"/>
-      <c r="U7" s="194"/>
-      <c r="V7" s="194"/>
-      <c r="W7" s="194"/>
-      <c r="X7" s="194"/>
-      <c r="Y7" s="194"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="185" t="s">
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="181" t="s">
         <v>142</v>
       </c>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="186" t="s">
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182" t="s">
         <v>143</v>
       </c>
-      <c r="AH7" s="186"/>
-      <c r="AI7" s="186"/>
-      <c r="AJ7" s="187"/>
-      <c r="AK7" s="185" t="s">
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="183"/>
+      <c r="AK7" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="AL7" s="186"/>
-      <c r="AM7" s="186"/>
-      <c r="AN7" s="187"/>
-      <c r="AO7" s="185" t="s">
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
+      <c r="AN7" s="183"/>
+      <c r="AO7" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="AP7" s="186"/>
-      <c r="AQ7" s="186"/>
-      <c r="AR7" s="186"/>
-      <c r="AS7" s="185" t="s">
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="AT7" s="186"/>
-      <c r="AU7" s="186"/>
-      <c r="AV7" s="186"/>
-      <c r="AW7" s="185" t="s">
+      <c r="AT7" s="182"/>
+      <c r="AU7" s="182"/>
+      <c r="AV7" s="182"/>
+      <c r="AW7" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="AX7" s="186"/>
-      <c r="AY7" s="186"/>
-      <c r="AZ7" s="186"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="182"/>
       <c r="BA7" s="109"/>
       <c r="BB7" s="109"/>
       <c r="BC7" s="109"/>
@@ -8888,7 +8897,7 @@
       <c r="BF7" s="109"/>
     </row>
     <row r="8" spans="1:58" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="184"/>
+      <c r="A8" s="189"/>
       <c r="B8" s="110" t="s">
         <v>145</v>
       </c>
@@ -9042,7 +9051,7 @@
       <c r="AZ8" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="BA8" s="196"/>
+      <c r="BA8" s="179"/>
       <c r="BB8" s="112"/>
       <c r="BC8" s="112"/>
       <c r="BD8" s="112"/>
@@ -9206,7 +9215,7 @@
       <c r="AZ9" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="BA9" s="196"/>
+      <c r="BA9" s="179"/>
       <c r="BB9" s="117"/>
       <c r="BC9" s="117"/>
       <c r="BD9" s="117"/>
@@ -9370,13 +9379,13 @@
       <c r="AZ10" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="BA10" s="196"/>
+      <c r="BA10" s="179"/>
     </row>
     <row r="11" spans="1:58" s="124" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="119"/>
       <c r="B11" s="120"/>
       <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
@@ -10804,13 +10813,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="N7:Y7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AS7:AV7"/>
     <mergeCell ref="AN1:AZ1"/>
     <mergeCell ref="AR2:AZ2"/>
     <mergeCell ref="A4:AZ4"/>
@@ -10823,6 +10825,13 @@
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="AW7:AZ7"/>
     <mergeCell ref="AR3:AZ3"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="N7:Y7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AS7:AV7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -10857,14 +10866,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
+      <c r="A1" s="172"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -10885,17 +10894,17 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-      <c r="AC1" s="159" t="s">
+      <c r="AC1" s="155" t="s">
         <v>164</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
-      <c r="AK1" s="159"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
       <c r="AL1" s="63"/>
       <c r="AM1" s="63"/>
       <c r="AN1" s="63"/>
@@ -10903,14 +10912,14 @@
       <c r="AP1" s="63"/>
     </row>
     <row r="2" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -10930,17 +10939,17 @@
       <c r="Z2" s="73"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="202" t="s">
+      <c r="AC2" s="204" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="202"/>
-      <c r="AK2" s="202"/>
+      <c r="AD2" s="204"/>
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
       <c r="AL2" s="64"/>
       <c r="AM2" s="64"/>
       <c r="AN2" s="64"/>
@@ -10948,156 +10957,156 @@
       <c r="AP2" s="64"/>
     </row>
     <row r="3" spans="1:42" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
     </row>
     <row r="4" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="148" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="177"/>
+      <c r="AA4" s="167" t="s">
         <v>167</v>
       </c>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="141" t="s">
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
     </row>
     <row r="5" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="141" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142" t="s">
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142" t="s">
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="141" t="s">
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="152" t="s">
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="152" t="s">
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="203" t="s">
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="205" t="s">
         <v>168</v>
       </c>
-      <c r="AI5" s="200" t="s">
+      <c r="AI5" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="AJ5" s="200" t="s">
+      <c r="AJ5" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="AK5" s="200" t="s">
+      <c r="AK5" s="202" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="28" t="s">
         <v>91</v>
       </c>
@@ -11194,10 +11203,10 @@
       <c r="AG6" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="AH6" s="204"/>
-      <c r="AI6" s="201"/>
-      <c r="AJ6" s="201"/>
-      <c r="AK6" s="201"/>
+      <c r="AH6" s="206"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
     </row>
     <row r="7" spans="1:42" s="81" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
@@ -11418,13 +11427,13 @@
       <c r="H9" s="3"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="197"/>
+      <c r="K9" s="199"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="197"/>
+      <c r="Q9" s="199"/>
       <c r="R9" s="16"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -11433,7 +11442,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="197"/>
+      <c r="Z9" s="199"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="7"/>
@@ -11458,13 +11467,13 @@
       <c r="G10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="198"/>
+      <c r="K10" s="200"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="198"/>
+      <c r="Q10" s="200"/>
       <c r="R10" s="2"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -11473,7 +11482,7 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="198"/>
+      <c r="Z10" s="200"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="7"/>
@@ -11499,13 +11508,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="198"/>
+      <c r="K11" s="200"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="198"/>
+      <c r="Q11" s="200"/>
       <c r="R11" s="2"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -11514,7 +11523,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="198"/>
+      <c r="Z11" s="200"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="7"/>
@@ -11540,13 +11549,13 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="199"/>
+      <c r="K12" s="201"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="199"/>
+      <c r="Q12" s="201"/>
       <c r="R12" s="2"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -11555,7 +11564,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="199"/>
+      <c r="Z12" s="201"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="7"/>
@@ -11581,13 +11590,13 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="197"/>
+      <c r="K13" s="199"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="197"/>
+      <c r="Q13" s="199"/>
       <c r="R13" s="2"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -11596,7 +11605,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="197"/>
+      <c r="Z13" s="199"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="7"/>
@@ -11622,13 +11631,13 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="198"/>
+      <c r="K14" s="200"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="198"/>
+      <c r="Q14" s="200"/>
       <c r="R14" s="2"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -11637,7 +11646,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="198"/>
+      <c r="Z14" s="200"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="7"/>
@@ -11663,13 +11672,13 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="198"/>
+      <c r="K15" s="200"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="198"/>
+      <c r="Q15" s="200"/>
       <c r="R15" s="2"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -11678,7 +11687,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="198"/>
+      <c r="Z15" s="200"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="7"/>
@@ -11704,13 +11713,13 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="199"/>
+      <c r="K16" s="201"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="199"/>
+      <c r="Q16" s="201"/>
       <c r="R16" s="2"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -11719,7 +11728,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="199"/>
+      <c r="Z16" s="201"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="7"/>
@@ -11745,13 +11754,13 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="197"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="197"/>
+      <c r="Q17" s="199"/>
       <c r="R17" s="2"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -11760,7 +11769,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="197"/>
+      <c r="Z17" s="199"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="7"/>
@@ -11786,13 +11795,13 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="198"/>
+      <c r="K18" s="200"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="198"/>
+      <c r="Q18" s="200"/>
       <c r="R18" s="2"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -11801,7 +11810,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="198"/>
+      <c r="Z18" s="200"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="7"/>
@@ -11827,13 +11836,13 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="198"/>
+      <c r="K19" s="200"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="198"/>
+      <c r="Q19" s="200"/>
       <c r="R19" s="2"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -11842,7 +11851,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="198"/>
+      <c r="Z19" s="200"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="7"/>
@@ -11868,13 +11877,13 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="199"/>
+      <c r="K20" s="201"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="199"/>
+      <c r="Q20" s="201"/>
       <c r="R20" s="2"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -11883,7 +11892,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="199"/>
+      <c r="Z20" s="201"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="7"/>
@@ -11950,13 +11959,13 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="197"/>
+      <c r="K22" s="199"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="197"/>
+      <c r="Q22" s="199"/>
       <c r="R22" s="2"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -11965,7 +11974,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="197"/>
+      <c r="Z22" s="199"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="7"/>
@@ -11991,13 +12000,13 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="198"/>
+      <c r="K23" s="200"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="199"/>
+      <c r="Q23" s="201"/>
       <c r="R23" s="2"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -12006,7 +12015,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="198"/>
+      <c r="Z23" s="200"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="7"/>
@@ -12032,13 +12041,13 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="198"/>
+      <c r="K24" s="200"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="197"/>
+      <c r="Q24" s="199"/>
       <c r="R24" s="2"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -12047,7 +12056,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="198"/>
+      <c r="Z24" s="200"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="7"/>
@@ -12073,13 +12082,13 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="199"/>
+      <c r="K25" s="201"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="199"/>
+      <c r="Q25" s="201"/>
       <c r="R25" s="2"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -12088,7 +12097,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="199"/>
+      <c r="Z25" s="201"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="7"/>
@@ -12114,13 +12123,13 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="197"/>
+      <c r="K26" s="199"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="197"/>
+      <c r="Q26" s="199"/>
       <c r="R26" s="2"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -12129,7 +12138,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="197"/>
+      <c r="Z26" s="199"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="7"/>
@@ -12155,13 +12164,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="198"/>
+      <c r="K27" s="200"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="199"/>
+      <c r="Q27" s="201"/>
       <c r="R27" s="2"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -12170,7 +12179,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="198"/>
+      <c r="Z27" s="200"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="7"/>
@@ -12196,13 +12205,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="198"/>
+      <c r="K28" s="200"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="197"/>
+      <c r="Q28" s="199"/>
       <c r="R28" s="2"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -12211,7 +12220,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="198"/>
+      <c r="Z28" s="200"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="7"/>
@@ -12237,13 +12246,13 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="199"/>
+      <c r="K29" s="201"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="199"/>
+      <c r="Q29" s="201"/>
       <c r="R29" s="2"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -12252,7 +12261,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="199"/>
+      <c r="Z29" s="201"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="7"/>
@@ -12278,13 +12287,13 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="197"/>
+      <c r="K30" s="199"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="197"/>
+      <c r="Q30" s="199"/>
       <c r="R30" s="2"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -12293,7 +12302,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="197"/>
+      <c r="Z30" s="199"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="7"/>
@@ -12319,13 +12328,13 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="198"/>
+      <c r="K31" s="200"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="199"/>
+      <c r="Q31" s="201"/>
       <c r="R31" s="2"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -12334,7 +12343,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="198"/>
+      <c r="Z31" s="200"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="7"/>
@@ -12360,13 +12369,13 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="198"/>
+      <c r="K32" s="200"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="197"/>
+      <c r="Q32" s="199"/>
       <c r="R32" s="2"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -12375,7 +12384,7 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="198"/>
+      <c r="Z32" s="200"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="7"/>
@@ -12401,13 +12410,13 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="199"/>
+      <c r="K33" s="201"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="199"/>
+      <c r="Q33" s="201"/>
       <c r="R33" s="2"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -12416,7 +12425,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="199"/>
+      <c r="Z33" s="201"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="7"/>
@@ -12471,55 +12480,55 @@
       <c r="AK34" s="18"/>
     </row>
     <row r="35" spans="1:37" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="205" t="s">
+      <c r="A35" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="140" t="s">
+      <c r="B35" s="198"/>
+      <c r="C35" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140" t="s">
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="N35" s="140"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="140"/>
-      <c r="R35" s="140"/>
-      <c r="S35" s="140"/>
-      <c r="T35" s="140"/>
-      <c r="U35" s="140"/>
-      <c r="V35" s="142" t="s">
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="160"/>
+      <c r="R35" s="160"/>
+      <c r="S35" s="160"/>
+      <c r="T35" s="160"/>
+      <c r="U35" s="160"/>
+      <c r="V35" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="W35" s="142"/>
-      <c r="X35" s="140" t="s">
+      <c r="W35" s="161"/>
+      <c r="X35" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="Y35" s="140"/>
-      <c r="Z35" s="140"/>
-      <c r="AA35" s="140"/>
-      <c r="AB35" s="140"/>
-      <c r="AC35" s="140"/>
-      <c r="AD35" s="140"/>
-      <c r="AE35" s="140"/>
-      <c r="AF35" s="140" t="s">
+      <c r="Y35" s="160"/>
+      <c r="Z35" s="160"/>
+      <c r="AA35" s="160"/>
+      <c r="AB35" s="160"/>
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="160"/>
+      <c r="AE35" s="160"/>
+      <c r="AF35" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="AG35" s="140"/>
-      <c r="AH35" s="140"/>
-      <c r="AI35" s="140"/>
-      <c r="AJ35" s="140"/>
-      <c r="AK35" s="140"/>
+      <c r="AG35" s="160"/>
+      <c r="AH35" s="160"/>
+      <c r="AI35" s="160"/>
+      <c r="AJ35" s="160"/>
+      <c r="AK35" s="160"/>
     </row>
     <row r="36" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
@@ -12603,6 +12612,36 @@
     <row r="39" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AF35:AK35"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Z30:Z33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="M35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:AE35"/>
+    <mergeCell ref="Z22:Z25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Z26:Z29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:Q5"/>
@@ -12619,36 +12658,6 @@
     <mergeCell ref="Z17:Z20"/>
     <mergeCell ref="K22:K25"/>
     <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="Z22:Z25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Z26:Z29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="AF35:AK35"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="Z30:Z33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="M35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:AE35"/>
   </mergeCells>
   <pageMargins left="1.18" right="0" top="0.59" bottom="0.2" header="0.196850393700787" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="69" orientation="landscape" r:id="rId1"/>
@@ -12745,23 +12754,23 @@
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
-      <c r="AE2" s="159" t="s">
+      <c r="AE2" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="155"/>
+      <c r="AM2" s="155"/>
+      <c r="AN2" s="155"/>
+      <c r="AO2" s="155"/>
+      <c r="AP2" s="155"/>
+      <c r="AQ2" s="155"/>
+      <c r="AR2" s="155"/>
+      <c r="AS2" s="155"/>
       <c r="AT2" s="5"/>
     </row>
     <row r="3" spans="1:51" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -12770,232 +12779,232 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="208"/>
-      <c r="U3" s="208"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="208"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="208"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="161" t="s">
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="213"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="213"/>
+      <c r="AC3" s="213"/>
+      <c r="AD3" s="213"/>
+      <c r="AE3" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="AF3" s="212"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="212"/>
-      <c r="AK3" s="212"/>
-      <c r="AL3" s="212"/>
-      <c r="AM3" s="212"/>
-      <c r="AN3" s="212"/>
-      <c r="AO3" s="212"/>
-      <c r="AP3" s="212"/>
-      <c r="AQ3" s="212"/>
-      <c r="AR3" s="212"/>
-      <c r="AS3" s="212"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="211"/>
+      <c r="AH3" s="211"/>
+      <c r="AI3" s="211"/>
+      <c r="AJ3" s="211"/>
+      <c r="AK3" s="211"/>
+      <c r="AL3" s="211"/>
+      <c r="AM3" s="211"/>
+      <c r="AN3" s="211"/>
+      <c r="AO3" s="211"/>
+      <c r="AP3" s="211"/>
+      <c r="AQ3" s="211"/>
+      <c r="AR3" s="211"/>
+      <c r="AS3" s="211"/>
       <c r="AT3" s="5"/>
     </row>
     <row r="4" spans="1:51" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
-      <c r="AP4" s="162"/>
-      <c r="AQ4" s="162"/>
-      <c r="AR4" s="162"/>
-      <c r="AS4" s="162"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="158"/>
+      <c r="AN4" s="158"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="158"/>
+      <c r="AQ4" s="158"/>
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158"/>
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="1:51" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="154" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="U5" s="155"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="152" t="s">
+      <c r="U5" s="147"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="152" t="s">
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="169"/>
+      <c r="AF5" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="214" t="s">
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="144"/>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="144"/>
+      <c r="AM5" s="144"/>
+      <c r="AN5" s="144"/>
+      <c r="AO5" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="AP5" s="214" t="s">
+      <c r="AP5" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="AQ5" s="214" t="s">
+      <c r="AQ5" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="AR5" s="214" t="s">
+      <c r="AR5" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="AS5" s="214" t="s">
+      <c r="AS5" s="208" t="s">
         <v>180</v>
       </c>
       <c r="AT5" s="5"/>
     </row>
     <row r="6" spans="1:51" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="141" t="s">
+      <c r="A6" s="141"/>
+      <c r="B6" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141" t="s">
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="152" t="s">
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="152" t="s">
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="152" t="s">
+      <c r="AA6" s="144"/>
+      <c r="AB6" s="169"/>
+      <c r="AC6" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="153"/>
-      <c r="AF6" s="152" t="s">
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="169"/>
+      <c r="AF6" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="141" t="s">
+      <c r="AG6" s="144"/>
+      <c r="AH6" s="144"/>
+      <c r="AI6" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141" t="s">
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="215"/>
-      <c r="AP6" s="215"/>
-      <c r="AQ6" s="215"/>
-      <c r="AR6" s="215"/>
-      <c r="AS6" s="215"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="209"/>
+      <c r="AP6" s="209"/>
+      <c r="AQ6" s="209"/>
+      <c r="AR6" s="209"/>
+      <c r="AS6" s="209"/>
       <c r="AT6" s="51"/>
       <c r="AU6" s="51"/>
       <c r="AV6" s="51"/>
@@ -13004,7 +13013,7 @@
       <c r="AY6" s="51"/>
     </row>
     <row r="7" spans="1:51" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="28" t="s">
         <v>145</v>
       </c>
@@ -13122,12 +13131,12 @@
       <c r="AN7" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="AO7" s="216"/>
-      <c r="AP7" s="216"/>
-      <c r="AQ7" s="216"/>
-      <c r="AR7" s="216"/>
-      <c r="AS7" s="216"/>
-      <c r="AT7" s="213"/>
+      <c r="AO7" s="210"/>
+      <c r="AP7" s="210"/>
+      <c r="AQ7" s="210"/>
+      <c r="AR7" s="210"/>
+      <c r="AS7" s="210"/>
+      <c r="AT7" s="207"/>
       <c r="AU7" s="52"/>
       <c r="AV7" s="52"/>
       <c r="AW7" s="52"/>
@@ -13270,7 +13279,7 @@
       <c r="AS8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="AT8" s="213"/>
+      <c r="AT8" s="207"/>
       <c r="AU8" s="53"/>
       <c r="AV8" s="53"/>
       <c r="AW8" s="53"/>
@@ -13327,7 +13336,7 @@
       <c r="AQ9" s="55"/>
       <c r="AR9" s="55"/>
       <c r="AS9" s="55"/>
-      <c r="AT9" s="213"/>
+      <c r="AT9" s="207"/>
     </row>
     <row r="10" spans="1:51" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -14580,63 +14589,63 @@
       <c r="AT34" s="49"/>
     </row>
     <row r="35" spans="1:46" s="12" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="207"/>
-      <c r="C35" s="143" t="s">
+      <c r="B35" s="212"/>
+      <c r="C35" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="209" t="s">
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="163"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
-      <c r="P35" s="210"/>
-      <c r="Q35" s="210"/>
-      <c r="R35" s="210"/>
-      <c r="S35" s="210"/>
-      <c r="T35" s="210"/>
-      <c r="U35" s="210"/>
-      <c r="V35" s="210"/>
-      <c r="W35" s="211"/>
-      <c r="X35" s="209" t="s">
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="215"/>
+      <c r="T35" s="215"/>
+      <c r="U35" s="215"/>
+      <c r="V35" s="215"/>
+      <c r="W35" s="216"/>
+      <c r="X35" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="Y35" s="210"/>
-      <c r="Z35" s="211"/>
-      <c r="AA35" s="143" t="s">
+      <c r="Y35" s="215"/>
+      <c r="Z35" s="216"/>
+      <c r="AA35" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="AB35" s="144"/>
-      <c r="AC35" s="144"/>
-      <c r="AD35" s="144"/>
-      <c r="AE35" s="144"/>
-      <c r="AF35" s="144"/>
-      <c r="AG35" s="144"/>
-      <c r="AH35" s="144"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="143" t="s">
+      <c r="AB35" s="163"/>
+      <c r="AC35" s="163"/>
+      <c r="AD35" s="163"/>
+      <c r="AE35" s="163"/>
+      <c r="AF35" s="163"/>
+      <c r="AG35" s="163"/>
+      <c r="AH35" s="163"/>
+      <c r="AI35" s="164"/>
+      <c r="AJ35" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="AK35" s="144"/>
-      <c r="AL35" s="144"/>
-      <c r="AM35" s="144"/>
-      <c r="AN35" s="144"/>
-      <c r="AO35" s="144"/>
-      <c r="AP35" s="144"/>
-      <c r="AQ35" s="144"/>
-      <c r="AR35" s="144"/>
-      <c r="AS35" s="145"/>
+      <c r="AK35" s="163"/>
+      <c r="AL35" s="163"/>
+      <c r="AM35" s="163"/>
+      <c r="AN35" s="163"/>
+      <c r="AO35" s="163"/>
+      <c r="AP35" s="163"/>
+      <c r="AQ35" s="163"/>
+      <c r="AR35" s="163"/>
+      <c r="AS35" s="164"/>
       <c r="AT35" s="26"/>
     </row>
     <row r="36" spans="1:46" ht="17.25" x14ac:dyDescent="0.3">
@@ -14683,6 +14692,24 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F3:AD3"/>
+    <mergeCell ref="M35:W35"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AI35"/>
+    <mergeCell ref="AE2:AS2"/>
+    <mergeCell ref="AE3:AS3"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="W5:AE5"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="A4:AS4"/>
+    <mergeCell ref="B5:S5"/>
     <mergeCell ref="AJ35:AS35"/>
     <mergeCell ref="AT7:AT9"/>
     <mergeCell ref="AF6:AH6"/>
@@ -14694,24 +14721,6 @@
     <mergeCell ref="AR5:AR7"/>
     <mergeCell ref="AS5:AS7"/>
     <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="AE2:AS2"/>
-    <mergeCell ref="AE3:AS3"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="W5:AE5"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="A4:AS4"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:S6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F3:AD3"/>
-    <mergeCell ref="M35:W35"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AI35"/>
   </mergeCells>
   <pageMargins left="1.18" right="0" top="0.59" bottom="0.59" header="0.31496062992126" footer="0.21"/>
   <pageSetup paperSize="8" scale="61" fitToHeight="2" orientation="landscape" r:id="rId1"/>
@@ -14738,138 +14747,138 @@
     <row r="3" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="218" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="222" t="s">
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="217" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="222"/>
-      <c r="L7" s="222" t="s">
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="217"/>
+      <c r="L7" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="M7" s="222"/>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="222"/>
-      <c r="Q7" s="222" t="s">
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="R7" s="222"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="222" t="s">
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="222"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="222"/>
-      <c r="X7" s="222" t="s">
+      <c r="U7" s="217"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="217"/>
+      <c r="X7" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="Y7" s="222"/>
-      <c r="Z7" s="222" t="s">
+      <c r="Y7" s="217"/>
+      <c r="Z7" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="AA7" s="222"/>
-      <c r="AB7" s="222" t="s">
+      <c r="AA7" s="217"/>
+      <c r="AB7" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="AC7" s="222"/>
-      <c r="AD7" s="222" t="s">
+      <c r="AC7" s="217"/>
+      <c r="AD7" s="217" t="s">
         <v>201</v>
       </c>
-      <c r="AE7" s="222"/>
-      <c r="AF7" s="222" t="s">
+      <c r="AE7" s="217"/>
+      <c r="AF7" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="AG7" s="222"/>
-      <c r="AH7" s="222" t="s">
+      <c r="AG7" s="217"/>
+      <c r="AH7" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="AI7" s="222"/>
-      <c r="AJ7" s="222" t="s">
+      <c r="AI7" s="217"/>
+      <c r="AJ7" s="217" t="s">
         <v>204</v>
       </c>
-      <c r="AK7" s="222"/>
-      <c r="AL7" s="222" t="s">
+      <c r="AK7" s="217"/>
+      <c r="AL7" s="217" t="s">
         <v>205</v>
       </c>
-      <c r="AM7" s="222"/>
-      <c r="AN7" s="222" t="s">
+      <c r="AM7" s="217"/>
+      <c r="AN7" s="217" t="s">
         <v>206</v>
       </c>
-      <c r="AO7" s="222"/>
+      <c r="AO7" s="217"/>
     </row>
     <row r="8" spans="1:41" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="222"/>
-      <c r="L8" s="222"/>
-      <c r="M8" s="222"/>
-      <c r="N8" s="222"/>
-      <c r="O8" s="222"/>
-      <c r="P8" s="222"/>
-      <c r="Q8" s="222"/>
-      <c r="R8" s="222"/>
-      <c r="S8" s="222"/>
-      <c r="T8" s="222"/>
-      <c r="U8" s="222"/>
-      <c r="V8" s="222"/>
-      <c r="W8" s="222"/>
-      <c r="X8" s="222" t="s">
+      <c r="B8" s="218"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="217"/>
+      <c r="U8" s="217"/>
+      <c r="V8" s="217"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217" t="s">
         <v>208</v>
       </c>
-      <c r="Y8" s="222"/>
-      <c r="Z8" s="222" t="s">
+      <c r="Y8" s="217"/>
+      <c r="Z8" s="217" t="s">
         <v>209</v>
       </c>
-      <c r="AA8" s="222"/>
-      <c r="AB8" s="222"/>
-      <c r="AC8" s="222"/>
-      <c r="AD8" s="222"/>
-      <c r="AE8" s="222"/>
-      <c r="AF8" s="222"/>
-      <c r="AG8" s="222"/>
-      <c r="AH8" s="222"/>
-      <c r="AI8" s="222"/>
-      <c r="AJ8" s="222"/>
-      <c r="AK8" s="222"/>
-      <c r="AL8" s="222"/>
-      <c r="AM8" s="222"/>
-      <c r="AN8" s="222" t="s">
+      <c r="AA8" s="217"/>
+      <c r="AB8" s="217"/>
+      <c r="AC8" s="217"/>
+      <c r="AD8" s="217"/>
+      <c r="AE8" s="217"/>
+      <c r="AF8" s="217"/>
+      <c r="AG8" s="217"/>
+      <c r="AH8" s="217"/>
+      <c r="AI8" s="217"/>
+      <c r="AJ8" s="217"/>
+      <c r="AK8" s="217"/>
+      <c r="AL8" s="217"/>
+      <c r="AM8" s="217"/>
+      <c r="AN8" s="217" t="s">
         <v>210</v>
       </c>
-      <c r="AO8" s="222"/>
+      <c r="AO8" s="217"/>
     </row>
     <row r="9" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
-      <c r="B9" s="221" t="s">
+      <c r="B9" s="219" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="219" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="221" t="s">
+      <c r="D9" s="219" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="219" t="s">
         <v>214</v>
       </c>
       <c r="F9" s="220" t="s">
@@ -14881,7 +14890,7 @@
       <c r="H9" s="220" t="s">
         <v>217</v>
       </c>
-      <c r="I9" s="221" t="s">
+      <c r="I9" s="219" t="s">
         <v>218</v>
       </c>
       <c r="J9" s="220" t="s">
@@ -14890,31 +14899,31 @@
       <c r="K9" s="220" t="s">
         <v>220</v>
       </c>
-      <c r="L9" s="221" t="s">
+      <c r="L9" s="219" t="s">
         <v>221</v>
       </c>
       <c r="M9" s="220" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="221" t="s">
+      <c r="N9" s="219" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="221" t="s">
+      <c r="O9" s="219" t="s">
         <v>224</v>
       </c>
       <c r="P9" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="Q9" s="221" t="s">
+      <c r="Q9" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="R9" s="221" t="s">
+      <c r="R9" s="219" t="s">
         <v>226</v>
       </c>
       <c r="S9" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="T9" s="221" t="s">
+      <c r="T9" s="219" t="s">
         <v>227</v>
       </c>
       <c r="U9" s="220" t="s">
@@ -14953,7 +14962,7 @@
       <c r="AF9" s="220" t="s">
         <v>233</v>
       </c>
-      <c r="AG9" s="221" t="s">
+      <c r="AG9" s="219" t="s">
         <v>229</v>
       </c>
       <c r="AH9" s="220" t="s">
@@ -14983,25 +14992,25 @@
     </row>
     <row r="10" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
       <c r="F10" s="220"/>
       <c r="G10" s="220"/>
       <c r="H10" s="220"/>
-      <c r="I10" s="221"/>
+      <c r="I10" s="219"/>
       <c r="J10" s="220"/>
       <c r="K10" s="220"/>
-      <c r="L10" s="221"/>
+      <c r="L10" s="219"/>
       <c r="M10" s="220"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="221"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
       <c r="P10" s="220"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="221"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="219"/>
       <c r="S10" s="220"/>
-      <c r="T10" s="221"/>
+      <c r="T10" s="219"/>
       <c r="U10" s="220"/>
       <c r="V10" s="220"/>
       <c r="W10" s="220"/>
@@ -15014,7 +15023,7 @@
       <c r="AD10" s="220"/>
       <c r="AE10" s="220"/>
       <c r="AF10" s="220"/>
-      <c r="AG10" s="221"/>
+      <c r="AG10" s="219"/>
       <c r="AH10" s="220"/>
       <c r="AI10" s="220"/>
       <c r="AJ10" s="220"/>
@@ -15028,25 +15037,25 @@
       <c r="A11" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="221"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
       <c r="F11" s="220"/>
       <c r="G11" s="220"/>
       <c r="H11" s="220"/>
-      <c r="I11" s="221"/>
+      <c r="I11" s="219"/>
       <c r="J11" s="220"/>
       <c r="K11" s="220"/>
-      <c r="L11" s="221"/>
+      <c r="L11" s="219"/>
       <c r="M11" s="220"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="221"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
       <c r="P11" s="220"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="221"/>
+      <c r="Q11" s="219"/>
+      <c r="R11" s="219"/>
       <c r="S11" s="220"/>
-      <c r="T11" s="221"/>
+      <c r="T11" s="219"/>
       <c r="U11" s="220"/>
       <c r="V11" s="220"/>
       <c r="W11" s="220"/>
@@ -15059,7 +15068,7 @@
       <c r="AD11" s="220"/>
       <c r="AE11" s="220"/>
       <c r="AF11" s="220"/>
-      <c r="AG11" s="221"/>
+      <c r="AG11" s="219"/>
       <c r="AH11" s="220"/>
       <c r="AI11" s="220"/>
       <c r="AJ11" s="220"/>
@@ -16367,118 +16376,159 @@
       <c r="AO38" s="70"/>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="218" t="s">
+      <c r="A39" s="221" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="218"/>
-      <c r="C39" s="217" t="s">
+      <c r="B39" s="221"/>
+      <c r="C39" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="217"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="217"/>
-      <c r="K39" s="217"/>
-      <c r="L39" s="217"/>
-      <c r="M39" s="217" t="s">
+      <c r="D39" s="222"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="222"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="222" t="s">
         <v>243</v>
       </c>
-      <c r="N39" s="217"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="217"/>
-      <c r="Q39" s="217"/>
-      <c r="R39" s="217"/>
-      <c r="S39" s="217"/>
-      <c r="T39" s="217"/>
-      <c r="U39" s="219"/>
-      <c r="V39" s="219"/>
-      <c r="W39" s="219"/>
-      <c r="X39" s="217" t="s">
+      <c r="N39" s="222"/>
+      <c r="O39" s="222"/>
+      <c r="P39" s="222"/>
+      <c r="Q39" s="222"/>
+      <c r="R39" s="222"/>
+      <c r="S39" s="222"/>
+      <c r="T39" s="222"/>
+      <c r="U39" s="223"/>
+      <c r="V39" s="223"/>
+      <c r="W39" s="223"/>
+      <c r="X39" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="Y39" s="217"/>
-      <c r="Z39" s="217"/>
-      <c r="AA39" s="217"/>
-      <c r="AB39" s="217"/>
-      <c r="AC39" s="217"/>
-      <c r="AD39" s="217"/>
-      <c r="AE39" s="217"/>
-      <c r="AF39" s="217"/>
-      <c r="AG39" s="217"/>
-      <c r="AH39" s="217" t="s">
+      <c r="Y39" s="222"/>
+      <c r="Z39" s="222"/>
+      <c r="AA39" s="222"/>
+      <c r="AB39" s="222"/>
+      <c r="AC39" s="222"/>
+      <c r="AD39" s="222"/>
+      <c r="AE39" s="222"/>
+      <c r="AF39" s="222"/>
+      <c r="AG39" s="222"/>
+      <c r="AH39" s="222" t="s">
         <v>243</v>
       </c>
-      <c r="AI39" s="217"/>
-      <c r="AJ39" s="217"/>
-      <c r="AK39" s="217"/>
-      <c r="AL39" s="217"/>
-      <c r="AM39" s="217"/>
-      <c r="AN39" s="217"/>
-      <c r="AO39" s="217"/>
+      <c r="AI39" s="222"/>
+      <c r="AJ39" s="222"/>
+      <c r="AK39" s="222"/>
+      <c r="AL39" s="222"/>
+      <c r="AM39" s="222"/>
+      <c r="AN39" s="222"/>
+      <c r="AO39" s="222"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="218"/>
-      <c r="B40" s="218"/>
-      <c r="C40" s="217" t="s">
+      <c r="A40" s="221"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="222" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="217"/>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="217"/>
-      <c r="J40" s="217"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="217"/>
-      <c r="M40" s="217" t="s">
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="222"/>
+      <c r="K40" s="222"/>
+      <c r="L40" s="222"/>
+      <c r="M40" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="N40" s="217"/>
-      <c r="O40" s="217"/>
-      <c r="P40" s="217"/>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="217"/>
-      <c r="S40" s="217"/>
-      <c r="T40" s="217"/>
-      <c r="U40" s="219"/>
-      <c r="V40" s="219"/>
-      <c r="W40" s="219"/>
-      <c r="X40" s="217" t="s">
+      <c r="N40" s="222"/>
+      <c r="O40" s="222"/>
+      <c r="P40" s="222"/>
+      <c r="Q40" s="222"/>
+      <c r="R40" s="222"/>
+      <c r="S40" s="222"/>
+      <c r="T40" s="222"/>
+      <c r="U40" s="223"/>
+      <c r="V40" s="223"/>
+      <c r="W40" s="223"/>
+      <c r="X40" s="222" t="s">
         <v>244</v>
       </c>
-      <c r="Y40" s="217"/>
-      <c r="Z40" s="217"/>
-      <c r="AA40" s="217"/>
-      <c r="AB40" s="217"/>
-      <c r="AC40" s="217"/>
-      <c r="AD40" s="217"/>
-      <c r="AE40" s="217"/>
-      <c r="AF40" s="217"/>
-      <c r="AG40" s="217"/>
-      <c r="AH40" s="217" t="s">
+      <c r="Y40" s="222"/>
+      <c r="Z40" s="222"/>
+      <c r="AA40" s="222"/>
+      <c r="AB40" s="222"/>
+      <c r="AC40" s="222"/>
+      <c r="AD40" s="222"/>
+      <c r="AE40" s="222"/>
+      <c r="AF40" s="222"/>
+      <c r="AG40" s="222"/>
+      <c r="AH40" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="AI40" s="217"/>
-      <c r="AJ40" s="217"/>
-      <c r="AK40" s="217"/>
-      <c r="AL40" s="217"/>
-      <c r="AM40" s="217"/>
-      <c r="AN40" s="217"/>
-      <c r="AO40" s="217"/>
+      <c r="AI40" s="222"/>
+      <c r="AJ40" s="222"/>
+      <c r="AK40" s="222"/>
+      <c r="AL40" s="222"/>
+      <c r="AM40" s="222"/>
+      <c r="AN40" s="222"/>
+      <c r="AO40" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="L7:P8"/>
-    <mergeCell ref="Q7:S8"/>
-    <mergeCell ref="T7:W8"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="AB39:AG39"/>
+    <mergeCell ref="AH39:AO39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="M40:T40"/>
+    <mergeCell ref="X40:AA40"/>
+    <mergeCell ref="AB40:AG40"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="M39:T39"/>
+    <mergeCell ref="U39:W40"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AF9:AF11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AA9:AA11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
     <mergeCell ref="AJ7:AK8"/>
     <mergeCell ref="AL7:AM8"/>
     <mergeCell ref="AN7:AO7"/>
@@ -16495,54 +16545,13 @@
     <mergeCell ref="AD7:AE8"/>
     <mergeCell ref="AF7:AG8"/>
     <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AA9:AA11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AF9:AF11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="M39:T39"/>
-    <mergeCell ref="U39:W40"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AH39:AO39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="M40:T40"/>
-    <mergeCell ref="X40:AA40"/>
-    <mergeCell ref="AB40:AG40"/>
-    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="E7:K8"/>
+    <mergeCell ref="L7:P8"/>
+    <mergeCell ref="Q7:S8"/>
+    <mergeCell ref="T7:W8"/>
   </mergeCells>
   <pageMargins left="1.18" right="0" top="0.59" bottom="0.59" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16551,6 +16560,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <WorkflowID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">132</WorkflowID>
+    <DocumentCategory xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434;#Tài liệu tham khảo</DocumentCategory>
+    <Required xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <Abstract xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <WorkflowURL xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">&lt;a href='/workflow/SitePages/Workflow.aspx?mode=2&amp;LID=5a1da0f5-24cd-4298-b5a1-9368a976217d&amp;itemID=34962' target='_blank'&gt;OS250228090&lt;/a&gt;</WorkflowURL>
+    <Workflow xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Quy trình Trình ký online</Workflow>
+    <RequestCode xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">OS250228090</RequestCode>
+    <DocumentCategoryData xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <DocumentCategoryID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434</DocumentCategoryID>
+    <Index xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <WorkflowStatus xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Soạn thảo</WorkflowStatus>
+    <_dlc_DocId xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">JSJPMY3Q7F3Z-1563364037-173686</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">
+      <Url>https://eoffice.hoaphat.com.vn/record25/dungquat/_layouts/15/DocIdRedir.aspx?ID=JSJPMY3Q7F3Z-1563364037-173686</Url>
+      <Description>JSJPMY3Q7F3Z-1563364037-173686</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010043A6F74638767E458E74B506E0539C9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc88bab3dd1fde8a3b2d86049cdcf0d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37731f6e-0f2d-4bf4-b84c-108a697c7149" xmlns:ns3="3ebebb59-d252-4474-a666-98fef1a0d5d8" xmlns:ns4="9ccb041b-7f56-4b5e-ab74-cc763d6e513d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddf5f1867867e56db45d849cd2a8eb13" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37731f6e-0f2d-4bf4-b84c-108a697c7149"/>
@@ -16805,39 +16837,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <WorkflowID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">132</WorkflowID>
-    <DocumentCategory xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434;#Tài liệu tham khảo</DocumentCategory>
-    <Required xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <Abstract xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <WorkflowURL xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">&lt;a href='/workflow/SitePages/Workflow.aspx?mode=2&amp;LID=5a1da0f5-24cd-4298-b5a1-9368a976217d&amp;itemID=34962' target='_blank'&gt;OS250228090&lt;/a&gt;</WorkflowURL>
-    <Workflow xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Quy trình Trình ký online</Workflow>
-    <RequestCode xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">OS250228090</RequestCode>
-    <DocumentCategoryData xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <DocumentCategoryID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434</DocumentCategoryID>
-    <Index xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <WorkflowStatus xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Soạn thảo</WorkflowStatus>
-    <_dlc_DocId xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">JSJPMY3Q7F3Z-1563364037-173686</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">
-      <Url>https://eoffice.hoaphat.com.vn/record25/dungquat/_layouts/15/DocIdRedir.aspx?ID=JSJPMY3Q7F3Z-1563364037-173686</Url>
-      <Description>JSJPMY3Q7F3Z-1563364037-173686</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -16887,7 +16887,27 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA7B682-EDE5-48E1-B3DF-7540D8F9D7F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ebebb59-d252-4474-a666-98fef1a0d5d8"/>
+    <ds:schemaRef ds:uri="37731f6e-0f2d-4bf4-b84c-108a697c7149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1499FEDE-10E5-402B-8AF6-877354BBB962}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16907,29 +16927,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA7B682-EDE5-48E1-B3DF-7540D8F9D7F4}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0E65-86F0-4601-88E3-73B9559992AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ebebb59-d252-4474-a666-98fef1a0d5d8"/>
-    <ds:schemaRef ds:uri="37731f6e-0f2d-4bf4-b84c-108a697c7149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36987501-64D0-4400-8217-A7658F3E360F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAB0E65-86F0-4601-88E3-73B9559992AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>